--- a/data/trans_camb/P21_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P21_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-6,52</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,97</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,19</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-6.92317611590938</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.383765211131037</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.077623781583595</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,51; -0,59</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,59; 0,37</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,76; -1,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.7595795142563</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.160808293641399</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.689667458515265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-25,0%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-14,43%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-19,35%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1.231935223280753</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.8203266783066382</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-1.290855095634783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-42,57; -1,25</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-28,62; 1,73</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-30,14; -4,67</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.2656652646079251</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1229471731853715</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1893003241303746</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-7,44</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,42</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.4341668503332249</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2748593927787462</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3031841451493272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,73; -1,41</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,56; 1,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,15; -1,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-0.04474822257190206</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.031156300507908</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.05055653674671839</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-32,31%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-13,45%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-22,36%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-7.352342977493912</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.632198542723497</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.481450250498431</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-51,4; -4,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-30,12; 5,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-34,99; -4,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.72876411463981</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.613317949322656</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.384843989523617</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,58</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-1.137935695795499</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.160030772259931</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-1.518301545043458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,85; 14,05</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,19; 8,6</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,55; 6,56</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.3194075979806273</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1430123966710908</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.2263370438314164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-15,24%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-5,12%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-10,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.5166956266389626</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.3067908208154269</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3586844514632413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-54,42; 85,77</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-40,09; 50,77</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-39,6; 34,69</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-0.02775627363786723</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.04979445855435814</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.06756895378378083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-6,51</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-3,42</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-4,93</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.87005047098524</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.867166149496602</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-3.382852231682262</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; -2,47</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; -0,14</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,33; -2,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-15.85584848351815</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.8261370668793</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-10.59681883170176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-26,56%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-13,15%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-19,51%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.99630051739467</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.114776238732718</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.177114421000329</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-40,07; -9,56</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-23,53; -0,62</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-27,83; -9,93</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.2073287941249063</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.08741420552796608</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1507599067765483</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.5922545979603636</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.4158002201236693</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.4175686610810527</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.7201227980284156</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.4707267846653861</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2872548159350582</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-6.83353407985057</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-3.296384963712637</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-5.022406541186461</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-10.97660039590265</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.339875179822853</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-7.410604146266533</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-2.960345456746945</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2525087435459619</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-2.379686950308594</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.2786666250886628</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1268300687026011</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.1987232154904894</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.4103897959364295</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2283925225283206</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2810725137490779</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.1286701703994613</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.01189543803718682</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.09706130600455921</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
